--- a/biology/Botanique/Liste_de_bactéries_phytopathogènes/Liste_de_bactéries_phytopathogènes.xlsx
+++ b/biology/Botanique/Liste_de_bactéries_phytopathogènes/Liste_de_bactéries_phytopathogènes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_phytopathog%C3%A8nes</t>
+          <t>Liste_de_bactéries_phytopathogènes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des bactéries phytopathogènes 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_phytopathog%C3%A8nes</t>
+          <t>Liste_de_bactéries_phytopathogènes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Alphaproteobacteria
-Acetobacteraceae
+          <t>Alphaproteobacteria</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acetobacteraceae
 Acetobacter
 Acetobacter aceti, agent de la piqûre du vin
 Acetobacter pasteurianus (=Pseudomonas pomi)
@@ -526,7 +543,7 @@
 Rhizobium radiobacter (= Agrobacterium tumefaciens)
 Rhizobium rhizogenes (= Agrobacterium rhizogenes), agent de la galle chevelue
 Rhizobium rubi (= Agrobacterium rubi), agent de la tumeur de la tige
-Rhizobium vitis (= Agrobacterium vitis), agent du broussin ou tumeur du collet chez la vigne[1].
+Rhizobium vitis (= Agrobacterium vitis), agent du broussin ou tumeur du collet chez la vigne.
 Candidatus Liberibacter
 Candidatus Liberibacter africanus, agent de la virescence des agrumes
 Candidatus Liberibacter africanus subsp. capensis
@@ -537,12 +554,47 @@
 Sphingomonas
 Sphingomonas melonis, responsable d'une bactériose du melon
 Sphingomonas suberifaciens (= Rhizomonas suberifaciens), agent des racines liégeuses de la laitue
-Betaproteobacteria
-Burkholderiaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_bactéries_phytopathogènes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_bact%C3%A9ries_phytopathog%C3%A8nes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Proteobacteria</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Betaproteobacteria</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Burkholderiaceae
 Burkholderia
 Burkholderia andropogonis (= Pseudomonas andropogonis), agent de la brûlure bactérienne du maïs
 Burkholderia caryophylli (= Pseudomonas caryophylli), agent du chancre bactérien de l'œillet
-Burkholderia cepacia (= Pseudomonas cepacia), agent de la pourriture molle de l'oignon ou pourriture bactérienne de l'oignon [2]. Cette bactérie peut également infecter l'homme.
+Burkholderia cepacia (= Pseudomonas cepacia), agent de la pourriture molle de l'oignon ou pourriture bactérienne de l'oignon . Cette bactérie peut également infecter l'homme.
 Burkholderia gladioli (= Pseudomonas gladioli)
 Burkholderia gladioli pv. agaricicola (= Pseudomonas gladioli  pv. agaricicola), agent de la  pourriture molle des champignons
 Burkholderia gladioli pv. alliicola (= Pseudomonas gladioli  pv. alliicola), agent de la  pourriture molle de l'oignon
@@ -552,20 +604,54 @@
 Comamonadaceae
 Acidovorax
 Acidovorax anthurii, agent des taches foliaires de l'anthurium
-Acidovorax avenae (= Pseudomonas avenae),  agent des taches foliaires de l'avoine[3]  et de la pourriture bactérienne de la tige du maïs.
+Acidovorax avenae (= Pseudomonas avenae),  agent des taches foliaires de l'avoine  et de la pourriture bactérienne de la tige du maïs.
 Acidovorax cattleyae (= Pseudomonas cattleyae), responsable de taches foli aires sur les orchidées.
 Acidovorax citrulli (= Pseudomonas avenae subsp. citrulli),
 Acidovorax konjaci = (Pseudomonas avenae subsp. konjaci), agent d'une bactériose du konjac (Amorphophallus konjac)
-Acidovorax oryzae, agent pathogène du riz[4].
+Acidovorax oryzae, agent pathogène du riz.
 Acidovorax valerianellae, agent de la tache bactérienne de la mâche
 Xylophilus
-Xylophilus ampelinus (= Xanthomonas ampelina), agent de la nécrose bactérienne de la vigne ou maladie d'Oléron de la vigne[5].
+Xylophilus ampelinus (= Xanthomonas ampelina), agent de la nécrose bactérienne de la vigne ou maladie d'Oléron de la vigne.
 Oxalobacteraceae
 Herbaspirillum
-Herbaspirillum rubrisubalbicans (= Pseudomonas rubrisubalbicans)
-Gammaproteobacteria
-Enterobacteriaceae
-Brenneria Selon Catalogue of Life                                  (8 août 2014)[6] :
+Herbaspirillum rubrisubalbicans (= Pseudomonas rubrisubalbicans)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_bactéries_phytopathogènes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_bact%C3%A9ries_phytopathog%C3%A8nes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Proteobacteria</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gammaproteobacteria</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Enterobacteriaceae
+Brenneria Selon Catalogue of Life                                  (8 août 2014) :
 Brenneria alni (= Erwinia alni), agent du chancre de l'écorce de l'aulne.
 Brenneria nigrifluens (= Erwinia nigrifluens), agent de la nécrose de l'écorce du noyer.
 Brenneria quercina (= Erwinia quercina), agent du chancre de l'écorce des chênes.
@@ -586,10 +672,10 @@
 Enterobacter cloacae pv. dissolvens (= Erwinia dissolvens)
 Enterobacter nimipressuralis (= = Erwinia nimipressuralis)
 Enterobacter pyrinus (= = Erwinia pyrina)
-Erwinia Selon Catalogue of Life                                  (8 août 2014)[6] :
+Erwinia Selon Catalogue of Life                                  (8 août 2014) :
 Erwinia amylovora, agent du feu bactérien, ou brûlure bactérienne des arbres fruitiers.
 Erwinia mallotivora, responsable d'une bactériose du papayer
-Erwinia papayae, agent du dépérissement bactérien du papayer[7].
+Erwinia papayae, agent du dépérissement bactérien du papayer.
 Erwinia persicina
 Erwinia psidii, agent de la bactériose du Psidium
 Erwinia pyrifoliae
@@ -599,9 +685,9 @@
 Ewingella americana
 Pantoea
 Pantoea agglomerans (= Erwinia herbicola)
-Pantoea ananatis (= Erwinia ananas), bactérie susceptible également d'infecter l'homme[8].
+Pantoea ananatis (= Erwinia ananas), bactérie susceptible également d'infecter l'homme.
 Pantoea stewartii (= Erwinia stewartii)
-Pectobacterium Selon Catalogue of Life                                  (8 août 2014)[6] :
+Pectobacterium Selon Catalogue of Life                                  (8 août 2014) :
 Pectobacterium atrosepticum (= Erwinia carotovora subsp. atroseptica)
 Pectobacterium betavasculorum (= Erwinia carotovora subsp. betavasculorum), agent de la nécrose vasculaire de la betterave
 Pectobacterium cacticida (= Erwinia cacticida)
@@ -610,7 +696,7 @@
 Pectobacterium wasabiae (Erwinia carotovora subsp. wasabiae), responsable d'une pourriture bactérienne des tiges de la pomme de terre.
 Samsonia
 Samsonia erythrinae
-Serratia Selon Catalogue of Life                                  (8 août 2014)[6] :
+Serratia Selon Catalogue of Life                                  (8 août 2014) :
 Serratia entomophila
 Serratia ficaria
 Serratia fonticola
@@ -625,7 +711,7 @@
 Serratia rubidaea
 Serratia ureilytica
 Candidatus Phlomobacter
-Candidatus Phlomobacter fragariae, agent de la chlorose marginale du fraisier[9].
+Candidatus Phlomobacter fragariae, agent de la chlorose marginale du fraisier.
 Pseudomonadaceae
 Pseudomonas
 Pseudomonas agarici
@@ -659,7 +745,7 @@
 Pseudomonas savastanoi pv. savastanoi, agent de la bactériose de l'olivier
 Pseudomonas syringae
 Pseudomonas syringae pv. aceris
-Pseudomonas syringae pv. actinidiae, agent du Chancre bactérien du kiwi[10].
+Pseudomonas syringae pv. actinidiae, agent du Chancre bactérien du kiwi.
 Pseudomonas syringae pv. aesculi, agent du chancre bactérien du marronnier
 Pseudomonas syringae pv. alisalensis
 Pseudomonas syringae pv. antirrhini
@@ -720,7 +806,7 @@
 Pseudomonas viridiflava
 Ralstonia
 Ralstonia solanacearum (= Pseudomonas solanacearum), responsable de maladies de flétrissement bactérien ou bactériose vasculaire (comme la pourriture brune de la pomme de terre, la maladie de Granville du tabac et la maladie de Moko du bananier)
-Ralstonia syzygii (= Pseudomonas syzygii), agent de la maladie de Sumatra du giroflier (Syzygium aromaticum)[11].
+Ralstonia syzygii (= Pseudomonas syzygii), agent de la maladie de Sumatra du giroflier (Syzygium aromaticum).
 Rhizobacter (voir Rhizobium)
 Rhizobacter dauci
 Xanthomonadaceae
@@ -836,67 +922,71 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_de_bact%C3%A9ries_phytopathog%C3%A8nes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_bactéries_phytopathogènes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_bact%C3%A9ries_phytopathog%C3%A8nes</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Firmicutes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bacillaceae
 Bacillus
-Bacillus megaterium, responsable d'une bactériose du lupin[12].
-Bacillus pumilus, responsable d'une bactériose du manguier[13].
+Bacillus megaterium, responsable d'une bactériose du lupin.
+Bacillus pumilus, responsable d'une bactériose du manguier.
 Clostridiaceae
 Clostridium
 Clostridium puniceum</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_de_bact%C3%A9ries_phytopathog%C3%A8nes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_bactéries_phytopathogènes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_bact%C3%A9ries_phytopathog%C3%A8nes</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Actinobacteria</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Micrococcaceae
 Arthrobacter
@@ -906,7 +996,7 @@
 Clavibacter michiganensis (= Corynebacterium michiganense)
 Clavibacter michiganensis subsp. insidiosus (= Corynebacterium insidiosum), agent du jaunissement bactérien de la luzerne
 Clavibacter michiganensis subsp. michiganensis (= Corynebacterium michiganense), agent du chancre bactérien de la tomate
-Clavibacter michiganensis subsp. nebraskensis (= Corynebacterium michiganense subsp. nebraskense), responsable du flétrissement bactérien de Goss et de la rouille des feuilles du maïs[14].
+Clavibacter michiganensis subsp. nebraskensis (= Corynebacterium michiganense subsp. nebraskense), responsable du flétrissement bactérien de Goss et de la rouille des feuilles du maïs.
 Clavibacter michiganensis subsp. sepedonicus (= Corynebacterium michiganense subsp. sepedonicum), agent de la pourriture annulaire chez la pomme de terre.
 Clavibacter michiganensis subsp. tessellarius (= Corynebacterium michiganense subsp. tessellarius), agent d'une bactériose du blé.
 Curtobacterium
@@ -954,38 +1044,40 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_de_bact%C3%A9ries_phytopathog%C3%A8nes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_bactéries_phytopathogènes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_bact%C3%A9ries_phytopathog%C3%A8nes</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Mollicutes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Candidatus Phytoplasma
 Candidatus Phytoplasma allocasuarinae
 Candidatus Phytoplasma americanum
 Candidatus Phytoplasma asteris, agent de la jaunisse de l'aster
-Candidatus Phytoplasma aurantifolia, maladie des balais de sorcière du limettier[15]
+Candidatus Phytoplasma aurantifolia, maladie des balais de sorcière du limettier
 Candidatus Phytoplasma australasia
 Candidatus Phytoplasma australiense, agent de la jaunisse australienne de la vigne
 Candidatus Phytoplasma brasiliense
